--- a/INTLINE/data/566/PHSA/General Wholesale Price Index by Commodity Group_historical.xlsx
+++ b/INTLINE/data/566/PHSA/General Wholesale Price Index by Commodity Group_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="309">
   <si>
     <t>1998-01</t>
   </si>
@@ -3083,8 +3083,8 @@
       <c r="KF2">
         <v>128.1</v>
       </c>
-      <c r="KG2" t="s">
-        <v>308</v>
+      <c r="KG2">
+        <v>128.9</v>
       </c>
       <c r="KH2" t="s">
         <v>308</v>
@@ -3988,8 +3988,8 @@
       <c r="KF3">
         <v>133.1</v>
       </c>
-      <c r="KG3" t="s">
-        <v>308</v>
+      <c r="KG3">
+        <v>134.2</v>
       </c>
       <c r="KH3" t="s">
         <v>308</v>
@@ -4893,8 +4893,8 @@
       <c r="KF4">
         <v>201.5</v>
       </c>
-      <c r="KG4" t="s">
-        <v>308</v>
+      <c r="KG4">
+        <v>206.4</v>
       </c>
       <c r="KH4" t="s">
         <v>308</v>
@@ -5798,8 +5798,8 @@
       <c r="KF5">
         <v>196.2</v>
       </c>
-      <c r="KG5" t="s">
-        <v>308</v>
+      <c r="KG5">
+        <v>193.6</v>
       </c>
       <c r="KH5" t="s">
         <v>308</v>
@@ -6703,8 +6703,8 @@
       <c r="KF6">
         <v>151.4</v>
       </c>
-      <c r="KG6" t="s">
-        <v>308</v>
+      <c r="KG6">
+        <v>157.4</v>
       </c>
       <c r="KH6" t="s">
         <v>308</v>
@@ -7608,8 +7608,8 @@
       <c r="KF7">
         <v>131.5</v>
       </c>
-      <c r="KG7" t="s">
-        <v>308</v>
+      <c r="KG7">
+        <v>131.5</v>
       </c>
       <c r="KH7" t="s">
         <v>308</v>
@@ -8513,8 +8513,8 @@
       <c r="KF8">
         <v>119.8</v>
       </c>
-      <c r="KG8" t="s">
-        <v>308</v>
+      <c r="KG8">
+        <v>120.3</v>
       </c>
       <c r="KH8" t="s">
         <v>308</v>
@@ -9418,8 +9418,8 @@
       <c r="KF9">
         <v>113.1</v>
       </c>
-      <c r="KG9" t="s">
-        <v>308</v>
+      <c r="KG9">
+        <v>112.4</v>
       </c>
       <c r="KH9" t="s">
         <v>308</v>
